--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il4-Il4ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il4-Il4ra.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9334919999999999</v>
+        <v>0.9458723333333334</v>
       </c>
       <c r="H2">
-        <v>2.800476</v>
+        <v>2.837617</v>
       </c>
       <c r="I2">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="J2">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.23621900000001</v>
+        <v>26.93692533333333</v>
       </c>
       <c r="N2">
-        <v>129.708657</v>
+        <v>80.810776</v>
       </c>
       <c r="O2">
-        <v>0.4133516515244106</v>
+        <v>0.319184224619106</v>
       </c>
       <c r="P2">
-        <v>0.4133516515244106</v>
+        <v>0.319184224619106</v>
       </c>
       <c r="Q2">
-        <v>40.360664546748</v>
+        <v>25.47889241786578</v>
       </c>
       <c r="R2">
-        <v>363.245980920732</v>
+        <v>229.310031760792</v>
       </c>
       <c r="S2">
-        <v>0.0864300399435116</v>
+        <v>0.05980511176753235</v>
       </c>
       <c r="T2">
-        <v>0.0864300399435116</v>
+        <v>0.05980511176753234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9334919999999999</v>
+        <v>0.9458723333333334</v>
       </c>
       <c r="H3">
-        <v>2.800476</v>
+        <v>2.837617</v>
       </c>
       <c r="I3">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="J3">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>64.06218699999999</v>
       </c>
       <c r="O3">
-        <v>0.2041514530268833</v>
+        <v>0.2530310992806105</v>
       </c>
       <c r="P3">
-        <v>0.2041514530268833</v>
+        <v>0.2530310992806105</v>
       </c>
       <c r="Q3">
-        <v>19.933846355668</v>
+        <v>20.19821676537545</v>
       </c>
       <c r="R3">
-        <v>179.404617201012</v>
+        <v>181.783950888379</v>
       </c>
       <c r="S3">
-        <v>0.04268718456686132</v>
+        <v>0.04741009111962442</v>
       </c>
       <c r="T3">
-        <v>0.04268718456686132</v>
+        <v>0.04741009111962441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9334919999999999</v>
+        <v>0.9458723333333334</v>
       </c>
       <c r="H4">
-        <v>2.800476</v>
+        <v>2.837617</v>
       </c>
       <c r="I4">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="J4">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.191864666666667</v>
+        <v>9.099134999999999</v>
       </c>
       <c r="N4">
-        <v>21.575594</v>
+        <v>27.297405</v>
       </c>
       <c r="O4">
-        <v>0.06875645480255156</v>
+        <v>0.1078185544096088</v>
       </c>
       <c r="P4">
-        <v>0.06875645480255155</v>
+        <v>0.1078185544096088</v>
       </c>
       <c r="Q4">
-        <v>6.713548131415999</v>
+        <v>8.606620053764999</v>
       </c>
       <c r="R4">
-        <v>60.42193318274399</v>
+        <v>77.45958048388501</v>
       </c>
       <c r="S4">
-        <v>0.0143766768876883</v>
+        <v>0.02020181512659396</v>
       </c>
       <c r="T4">
-        <v>0.0143766768876883</v>
+        <v>0.02020181512659396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9334919999999999</v>
+        <v>0.9458723333333334</v>
       </c>
       <c r="H5">
-        <v>2.800476</v>
+        <v>2.837617</v>
       </c>
       <c r="I5">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="J5">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.81697400000001</v>
+        <v>27.002912</v>
       </c>
       <c r="N5">
-        <v>98.45092200000002</v>
+        <v>81.008736</v>
       </c>
       <c r="O5">
-        <v>0.3137404406461546</v>
+        <v>0.3199661216906747</v>
       </c>
       <c r="P5">
-        <v>0.3137404406461546</v>
+        <v>0.3199661216906747</v>
       </c>
       <c r="Q5">
-        <v>30.634382693208</v>
+        <v>25.54130738023467</v>
       </c>
       <c r="R5">
-        <v>275.709444238872</v>
+        <v>229.871766422112</v>
       </c>
       <c r="S5">
-        <v>0.06560176720460181</v>
+        <v>0.05995161475279635</v>
       </c>
       <c r="T5">
-        <v>0.06560176720460181</v>
+        <v>0.05995161475279634</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>5.893002</v>
       </c>
       <c r="I6">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="J6">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.23621900000001</v>
+        <v>26.93692533333333</v>
       </c>
       <c r="N6">
-        <v>129.708657</v>
+        <v>80.810776</v>
       </c>
       <c r="O6">
-        <v>0.4133516515244106</v>
+        <v>0.319184224619106</v>
       </c>
       <c r="P6">
-        <v>0.4133516515244106</v>
+        <v>0.319184224619106</v>
       </c>
       <c r="Q6">
-        <v>84.930375013146</v>
+        <v>52.913118287728</v>
       </c>
       <c r="R6">
-        <v>764.3733751183141</v>
+        <v>476.2180645895521</v>
       </c>
       <c r="S6">
-        <v>0.1818735094488201</v>
+        <v>0.1241998632149059</v>
       </c>
       <c r="T6">
-        <v>0.1818735094488201</v>
+        <v>0.1241998632149059</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>5.893002</v>
       </c>
       <c r="I7">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="J7">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>64.06218699999999</v>
       </c>
       <c r="O7">
-        <v>0.2041514530268833</v>
+        <v>0.2530310992806105</v>
       </c>
       <c r="P7">
-        <v>0.2041514530268833</v>
+        <v>0.2530310992806105</v>
       </c>
       <c r="Q7">
         <v>41.946510679486</v>
@@ -883,10 +883,10 @@
         <v>377.518596115374</v>
       </c>
       <c r="S7">
-        <v>0.08982603815454333</v>
+        <v>0.09845858753599548</v>
       </c>
       <c r="T7">
-        <v>0.08982603815454333</v>
+        <v>0.09845858753599548</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>5.893002</v>
       </c>
       <c r="I8">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="J8">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.191864666666667</v>
+        <v>9.099134999999999</v>
       </c>
       <c r="N8">
-        <v>21.575594</v>
+        <v>27.297405</v>
       </c>
       <c r="O8">
-        <v>0.06875645480255156</v>
+        <v>0.1078185544096088</v>
       </c>
       <c r="P8">
-        <v>0.06875645480255155</v>
+        <v>0.1078185544096088</v>
       </c>
       <c r="Q8">
-        <v>14.127224288132</v>
+        <v>17.87374025109</v>
       </c>
       <c r="R8">
-        <v>127.145018593188</v>
+        <v>160.86366225981</v>
       </c>
       <c r="S8">
-        <v>0.0302526376417798</v>
+        <v>0.04195398355191995</v>
       </c>
       <c r="T8">
-        <v>0.03025263764177979</v>
+        <v>0.04195398355191995</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>5.893002</v>
       </c>
       <c r="I9">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="J9">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.81697400000001</v>
+        <v>27.002912</v>
       </c>
       <c r="N9">
-        <v>98.45092200000002</v>
+        <v>81.008736</v>
       </c>
       <c r="O9">
-        <v>0.3137404406461546</v>
+        <v>0.3199661216906747</v>
       </c>
       <c r="P9">
-        <v>0.3137404406461546</v>
+        <v>0.3199661216906747</v>
       </c>
       <c r="Q9">
-        <v>64.46349780531602</v>
+        <v>53.04273814060799</v>
       </c>
       <c r="R9">
-        <v>580.1714802478441</v>
+        <v>477.384643265472</v>
       </c>
       <c r="S9">
-        <v>0.13804486999362</v>
+        <v>0.1245041123031961</v>
       </c>
       <c r="T9">
-        <v>0.13804486999362</v>
+        <v>0.1245041123031961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.413418666666667</v>
+        <v>1.499502333333333</v>
       </c>
       <c r="H10">
-        <v>4.240256</v>
+        <v>4.498507</v>
       </c>
       <c r="I10">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="J10">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.23621900000001</v>
+        <v>26.93692533333333</v>
       </c>
       <c r="N10">
-        <v>129.708657</v>
+        <v>80.810776</v>
       </c>
       <c r="O10">
-        <v>0.4133516515244106</v>
+        <v>0.319184224619106</v>
       </c>
       <c r="P10">
-        <v>0.4133516515244106</v>
+        <v>0.319184224619106</v>
       </c>
       <c r="Q10">
-        <v>61.110879010688</v>
+        <v>40.39198239015911</v>
       </c>
       <c r="R10">
-        <v>549.9979110961921</v>
+        <v>363.527841511432</v>
       </c>
       <c r="S10">
-        <v>0.1308654298236138</v>
+        <v>0.09480973433765959</v>
       </c>
       <c r="T10">
-        <v>0.1308654298236138</v>
+        <v>0.09480973433765959</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.413418666666667</v>
+        <v>1.499502333333333</v>
       </c>
       <c r="H11">
-        <v>4.240256</v>
+        <v>4.498507</v>
       </c>
       <c r="I11">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="J11">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>64.06218699999999</v>
       </c>
       <c r="O11">
-        <v>0.2041514530268833</v>
+        <v>0.2530310992806105</v>
       </c>
       <c r="P11">
-        <v>0.2041514530268833</v>
+        <v>0.2530310992806105</v>
       </c>
       <c r="Q11">
-        <v>30.18223031109688</v>
+        <v>32.02046629497877</v>
       </c>
       <c r="R11">
-        <v>271.640072799872</v>
+        <v>288.184196654809</v>
       </c>
       <c r="S11">
-        <v>0.06463350890446522</v>
+        <v>0.07515976496203267</v>
       </c>
       <c r="T11">
-        <v>0.06463350890446522</v>
+        <v>0.07515976496203267</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.413418666666667</v>
+        <v>1.499502333333333</v>
       </c>
       <c r="H12">
-        <v>4.240256</v>
+        <v>4.498507</v>
       </c>
       <c r="I12">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="J12">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.191864666666667</v>
+        <v>9.099134999999999</v>
       </c>
       <c r="N12">
-        <v>21.575594</v>
+        <v>27.297405</v>
       </c>
       <c r="O12">
-        <v>0.06875645480255156</v>
+        <v>0.1078185544096088</v>
       </c>
       <c r="P12">
-        <v>0.06875645480255155</v>
+        <v>0.1078185544096088</v>
       </c>
       <c r="Q12">
-        <v>10.16511576800711</v>
+        <v>13.644174163815</v>
       </c>
       <c r="R12">
-        <v>91.48604191206398</v>
+        <v>122.797567474335</v>
       </c>
       <c r="S12">
-        <v>0.0217680103072055</v>
+        <v>0.03202617081857375</v>
       </c>
       <c r="T12">
-        <v>0.0217680103072055</v>
+        <v>0.03202617081857376</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.413418666666667</v>
+        <v>1.499502333333333</v>
       </c>
       <c r="H13">
-        <v>4.240256</v>
+        <v>4.498507</v>
       </c>
       <c r="I13">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="J13">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>32.81697400000001</v>
+        <v>27.002912</v>
       </c>
       <c r="N13">
-        <v>98.45092200000002</v>
+        <v>81.008736</v>
       </c>
       <c r="O13">
-        <v>0.3137404406461546</v>
+        <v>0.3199661216906747</v>
       </c>
       <c r="P13">
-        <v>0.3137404406461546</v>
+        <v>0.3199661216906747</v>
       </c>
       <c r="Q13">
-        <v>46.38412363511468</v>
+        <v>40.49092955079466</v>
       </c>
       <c r="R13">
-        <v>417.457112716032</v>
+        <v>364.418365957152</v>
       </c>
       <c r="S13">
-        <v>0.09932893086743685</v>
+        <v>0.09504198721207181</v>
       </c>
       <c r="T13">
-        <v>0.09932893086743685</v>
+        <v>0.09504198721207181</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1531806666666667</v>
+        <v>0.6384806666666667</v>
       </c>
       <c r="H14">
-        <v>0.459542</v>
+        <v>1.915442</v>
       </c>
       <c r="I14">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="J14">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.23621900000001</v>
+        <v>26.93692533333333</v>
       </c>
       <c r="N14">
-        <v>129.708657</v>
+        <v>80.810776</v>
       </c>
       <c r="O14">
-        <v>0.4133516515244106</v>
+        <v>0.319184224619106</v>
       </c>
       <c r="P14">
-        <v>0.4133516515244106</v>
+        <v>0.319184224619106</v>
       </c>
       <c r="Q14">
-        <v>6.622952850566</v>
+        <v>17.19870604477689</v>
       </c>
       <c r="R14">
-        <v>59.60657565509401</v>
+        <v>154.788354402992</v>
       </c>
       <c r="S14">
-        <v>0.01418267230846514</v>
+        <v>0.04036951529900817</v>
       </c>
       <c r="T14">
-        <v>0.01418267230846514</v>
+        <v>0.04036951529900817</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1531806666666667</v>
+        <v>0.6384806666666667</v>
       </c>
       <c r="H15">
-        <v>0.459542</v>
+        <v>1.915442</v>
       </c>
       <c r="I15">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="J15">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>64.06218699999999</v>
       </c>
       <c r="O15">
-        <v>0.2041514530268833</v>
+        <v>0.2530310992806105</v>
       </c>
       <c r="P15">
-        <v>0.2041514530268833</v>
+        <v>0.2530310992806105</v>
       </c>
       <c r="Q15">
-        <v>3.271029504261555</v>
+        <v>13.63415595462822</v>
       </c>
       <c r="R15">
-        <v>29.439265538354</v>
+        <v>122.707403591654</v>
       </c>
       <c r="S15">
-        <v>0.007004721401013466</v>
+        <v>0.03200265566295791</v>
       </c>
       <c r="T15">
-        <v>0.007004721401013466</v>
+        <v>0.03200265566295791</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1531806666666667</v>
+        <v>0.6384806666666667</v>
       </c>
       <c r="H16">
-        <v>0.459542</v>
+        <v>1.915442</v>
       </c>
       <c r="I16">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="J16">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.191864666666667</v>
+        <v>9.099134999999999</v>
       </c>
       <c r="N16">
-        <v>21.575594</v>
+        <v>27.297405</v>
       </c>
       <c r="O16">
-        <v>0.06875645480255156</v>
+        <v>0.1078185544096088</v>
       </c>
       <c r="P16">
-        <v>0.06875645480255155</v>
+        <v>0.1078185544096088</v>
       </c>
       <c r="Q16">
-        <v>1.101654624216444</v>
+        <v>5.80962178089</v>
       </c>
       <c r="R16">
-        <v>9.914891617947999</v>
+        <v>52.28659602801</v>
       </c>
       <c r="S16">
-        <v>0.002359129965877964</v>
+        <v>0.0136365849125211</v>
       </c>
       <c r="T16">
-        <v>0.002359129965877964</v>
+        <v>0.0136365849125211</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1531806666666667</v>
+        <v>0.6384806666666667</v>
       </c>
       <c r="H17">
-        <v>0.459542</v>
+        <v>1.915442</v>
       </c>
       <c r="I17">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="J17">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.81697400000001</v>
+        <v>27.002912</v>
       </c>
       <c r="N17">
-        <v>98.45092200000002</v>
+        <v>81.008736</v>
       </c>
       <c r="O17">
-        <v>0.3137404406461546</v>
+        <v>0.3199661216906747</v>
       </c>
       <c r="P17">
-        <v>0.3137404406461546</v>
+        <v>0.3199661216906747</v>
       </c>
       <c r="Q17">
-        <v>5.026925955302668</v>
+        <v>17.24083725570133</v>
       </c>
       <c r="R17">
-        <v>45.24233359772401</v>
+        <v>155.167535301312</v>
       </c>
       <c r="S17">
-        <v>0.01076487258049601</v>
+        <v>0.0404684074226105</v>
       </c>
       <c r="T17">
-        <v>0.01076487258049601</v>
+        <v>0.0404684074226105</v>
       </c>
     </row>
   </sheetData>
